--- a/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 14.12.20.xlsx
+++ b/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 14.12.20.xlsx
@@ -1548,19 +1548,28 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,28 +1593,22 @@
     <xf numFmtId="1" fontId="14" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,9 +1639,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2081,162 +2081,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30.75">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="182"/>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="182"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="182"/>
-      <c r="AL1" s="182"/>
-      <c r="AM1" s="182"/>
-      <c r="AN1" s="182"/>
-      <c r="AO1" s="182"/>
-      <c r="AP1" s="182"/>
-      <c r="AQ1" s="182"/>
-      <c r="AR1" s="182"/>
-      <c r="AS1" s="182"/>
-      <c r="AT1" s="182"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="168"/>
+      <c r="AT1" s="168"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="153"/>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="153"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="153"/>
-      <c r="AK2" s="153"/>
-      <c r="AL2" s="153"/>
-      <c r="AM2" s="153"/>
-      <c r="AN2" s="153"/>
-      <c r="AO2" s="153"/>
-      <c r="AP2" s="153"/>
-      <c r="AQ2" s="153"/>
-      <c r="AR2" s="153"/>
-      <c r="AS2" s="153"/>
-      <c r="AT2" s="153"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="169"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="156"/>
-      <c r="AN3" s="156"/>
-      <c r="AO3" s="156"/>
-      <c r="AP3" s="156"/>
-      <c r="AQ3" s="156"/>
-      <c r="AR3" s="156"/>
-      <c r="AS3" s="156"/>
-      <c r="AT3" s="156"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
+      <c r="AK3" s="172"/>
+      <c r="AL3" s="172"/>
+      <c r="AM3" s="172"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="172"/>
+      <c r="AP3" s="172"/>
+      <c r="AQ3" s="172"/>
+      <c r="AR3" s="172"/>
+      <c r="AS3" s="172"/>
+      <c r="AT3" s="172"/>
     </row>
     <row r="4" spans="1:56" ht="15">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="89">
         <v>0</v>
       </c>
@@ -2261,10 +2261,10 @@
       <c r="L4" s="151">
         <v>300</v>
       </c>
-      <c r="M4" s="157">
+      <c r="M4" s="160">
         <v>500</v>
       </c>
-      <c r="N4" s="157"/>
+      <c r="N4" s="160"/>
       <c r="O4" s="151">
         <v>1710</v>
       </c>
@@ -2287,24 +2287,24 @@
       <c r="Z4" s="89"/>
       <c r="AA4" s="89"/>
       <c r="AB4" s="89"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="158"/>
-      <c r="AK4" s="158"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="158"/>
-      <c r="AN4" s="158"/>
-      <c r="AO4" s="158"/>
-      <c r="AP4" s="158"/>
-      <c r="AQ4" s="158"/>
-      <c r="AR4" s="158"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="158"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="161"/>
+      <c r="AH4" s="161"/>
+      <c r="AI4" s="161"/>
+      <c r="AJ4" s="161"/>
+      <c r="AK4" s="161"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="161"/>
+      <c r="AN4" s="161"/>
+      <c r="AO4" s="161"/>
+      <c r="AP4" s="161"/>
+      <c r="AQ4" s="161"/>
+      <c r="AR4" s="161"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="161"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
@@ -2316,12 +2316,12 @@
       <c r="BD4" s="6"/>
     </row>
     <row r="5" spans="1:56" ht="15">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="89"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
@@ -2354,24 +2354,24 @@
       <c r="Z5" s="89"/>
       <c r="AA5" s="89"/>
       <c r="AB5" s="89"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="158"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
-      <c r="AL5" s="158"/>
-      <c r="AM5" s="158"/>
-      <c r="AN5" s="158"/>
-      <c r="AO5" s="158"/>
-      <c r="AP5" s="158"/>
-      <c r="AQ5" s="158"/>
-      <c r="AR5" s="158"/>
-      <c r="AS5" s="158"/>
-      <c r="AT5" s="158"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="161"/>
+      <c r="AH5" s="161"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="161"/>
+      <c r="AK5" s="161"/>
+      <c r="AL5" s="161"/>
+      <c r="AM5" s="161"/>
+      <c r="AN5" s="161"/>
+      <c r="AO5" s="161"/>
+      <c r="AP5" s="161"/>
+      <c r="AQ5" s="161"/>
+      <c r="AR5" s="161"/>
+      <c r="AS5" s="161"/>
+      <c r="AT5" s="161"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -3488,7 +3488,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="45">
-        <v>11318</v>
+        <v>11618</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
@@ -3516,19 +3516,19 @@
       <c r="AB16" s="149"/>
       <c r="AC16" s="55">
         <f t="shared" si="6"/>
-        <v>11318</v>
+        <v>11618</v>
       </c>
       <c r="AD16" s="149">
         <f t="shared" si="0"/>
-        <v>11318</v>
+        <v>11618</v>
       </c>
       <c r="AE16" s="18">
         <f t="shared" si="1"/>
-        <v>311.245</v>
+        <v>319.495</v>
       </c>
       <c r="AF16" s="18">
         <f t="shared" si="2"/>
-        <v>107.521</v>
+        <v>110.371</v>
       </c>
       <c r="AG16" s="8">
         <f t="shared" si="7"/>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="AO16" s="109">
         <f t="shared" si="9"/>
-        <v>311.245</v>
+        <v>319.495</v>
       </c>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="58">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="AR16" s="26">
         <f t="shared" si="10"/>
-        <v>10886.754999999999</v>
+        <v>11178.504999999999</v>
       </c>
       <c r="AS16" s="52">
         <f t="shared" si="4"/>
-        <v>107.521</v>
+        <v>110.371</v>
       </c>
       <c r="AT16" s="52">
         <f t="shared" si="5"/>
-        <v>-12.478999999999999</v>
+        <v>-9.6290000000000049</v>
       </c>
       <c r="AU16" s="6"/>
       <c r="AV16" s="121"/>
@@ -4707,14 +4707,14 @@
       <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="1:56" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
       <c r="D29" s="111">
         <f t="shared" ref="D29:AT29" si="13">SUM(D7:D28)</f>
-        <v>191860</v>
+        <v>192160</v>
       </c>
       <c r="E29" s="111">
         <f t="shared" si="13"/>
@@ -4814,19 +4814,19 @@
       </c>
       <c r="AC29" s="112">
         <f t="shared" si="13"/>
-        <v>204340</v>
+        <v>204640</v>
       </c>
       <c r="AD29" s="112">
         <f t="shared" si="13"/>
-        <v>191860</v>
+        <v>192160</v>
       </c>
       <c r="AE29" s="112">
         <f t="shared" si="13"/>
-        <v>5276.1500000000005</v>
+        <v>5284.4000000000005</v>
       </c>
       <c r="AF29" s="112">
         <f t="shared" si="13"/>
-        <v>1822.6699999999998</v>
+        <v>1825.52</v>
       </c>
       <c r="AG29" s="112">
         <f t="shared" si="13"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="AO29" s="113">
         <f>SUM(AO7:AO28)</f>
-        <v>5306.95</v>
+        <v>5315.2</v>
       </c>
       <c r="AP29" s="112">
         <f t="shared" si="13"/>
@@ -4874,15 +4874,15 @@
       </c>
       <c r="AR29" s="115">
         <f>SUM(AR7:AR28)</f>
-        <v>197023.155</v>
+        <v>197314.905</v>
       </c>
       <c r="AS29" s="115">
         <f t="shared" si="13"/>
-        <v>1941.23</v>
+        <v>1944.0800000000002</v>
       </c>
       <c r="AT29" s="115">
         <f t="shared" si="13"/>
-        <v>244.23</v>
+        <v>247.07999999999996</v>
       </c>
       <c r="AU29" s="116"/>
       <c r="AV29" s="116"/>
@@ -4896,10 +4896,10 @@
       <c r="BD29" s="122"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34">
@@ -5057,47 +5057,47 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="163" t="s">
+      <c r="D32" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
       <c r="O32" s="23"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="AR32" s="152" t="s">
+      <c r="AR32" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="AS32" s="152"/>
-      <c r="AT32" s="152"/>
+      <c r="AS32" s="167"/>
+      <c r="AT32" s="167"/>
       <c r="AU32" s="14"/>
     </row>
     <row r="33" spans="1:47" ht="15.75">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="169" t="s">
+      <c r="D33" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
       <c r="L33" s="150"/>
       <c r="M33" s="150">
-        <v>197017</v>
+        <v>197309</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -5115,16 +5115,16 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
       <c r="L34" s="45"/>
       <c r="M34" s="129">
         <v>52008</v>
@@ -5148,18 +5148,18 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
       <c r="L35" s="149"/>
       <c r="M35" s="130">
         <f>M33+M34</f>
-        <v>249025</v>
+        <v>249317</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -5177,16 +5177,16 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="171" t="s">
+      <c r="D36" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
       <c r="L36" s="149"/>
       <c r="M36" s="129">
         <v>8998</v>
@@ -5207,20 +5207,20 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="169" t="s">
+      <c r="D37" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
       <c r="L37" s="133"/>
       <c r="M37" s="131">
         <f>M35-M36</f>
-        <v>240027</v>
+        <v>240319</v>
       </c>
       <c r="O37" s="23"/>
       <c r="AR37" s="9"/>
@@ -5235,16 +5235,16 @@
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="165" t="s">
+      <c r="D38" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="165"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="158"/>
       <c r="L38" s="149"/>
       <c r="M38" s="149">
         <v>238000</v>
@@ -5261,20 +5261,20 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="166" t="s">
+      <c r="D39" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="168"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="154"/>
       <c r="L39" s="46"/>
       <c r="M39" s="130">
         <f>M37-M38</f>
-        <v>2027</v>
+        <v>2319</v>
       </c>
       <c r="AR39" s="72">
         <f>SUM(AR33:AR38)</f>
@@ -5291,20 +5291,20 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="164" t="s">
+      <c r="D40" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="164"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
       <c r="L40" s="148"/>
       <c r="M40" s="132">
         <f>M36+M39</f>
-        <v>11025</v>
+        <v>11317</v>
       </c>
     </row>
     <row r="41" spans="1:47">
@@ -6044,19 +6044,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="AC5:AT5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="D32:M32"/>
     <mergeCell ref="AR32:AT32"/>
     <mergeCell ref="A1:AT1"/>
@@ -6067,6 +6054,19 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="AC4:AT4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="AC5:AT5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
@@ -6111,104 +6111,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1" ht="7.5" hidden="1" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
     </row>
     <row r="5" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
     </row>
     <row r="6" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180" t="s">
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
       <c r="I6" s="136"/>
       <c r="J6" s="136"/>
       <c r="K6" s="136"/>
@@ -6689,11 +6689,11 @@
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="68">
         <f t="shared" ref="D29:J29" si="0">SUM(D8:D28)</f>
         <v>0</v>
